--- a/RUDN/Importance/Varible_muatal_reg_in_Western Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Western Europe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
@@ -34,12 +34,12 @@
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
@@ -109,15 +109,15 @@
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
@@ -127,10 +127,13 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% gross)</t>
@@ -139,13 +142,13 @@
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
+    <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Female share of employment in senior and middle management (%)</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
@@ -154,15 +157,12 @@
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
@@ -172,121 +172,130 @@
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
     <t>Male population 80+</t>
   </si>
   <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Country_code</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
@@ -295,70 +304,67 @@
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>GINI index (World Bank estimate)</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
   </si>
   <si>
     <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Country_code</t>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Male population 75-79</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>People using basic sanitation services (% of population)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Survival to age 65, male (% of cohort)</t>
@@ -367,45 +373,45 @@
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+    <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
     <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
   </si>
   <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
@@ -415,316 +421,322 @@
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
+    <t>Female population 40-44</t>
   </si>
   <si>
     <t>Female population 70-74</t>
   </si>
   <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
     <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+    <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
     <t>Own-account workers, male (% of males employed)</t>
@@ -739,184 +751,178 @@
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Self-employed, male (% of male employment)</t>
   </si>
   <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
   </si>
   <si>
     <t>Employers, male (% of male employment)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
   </si>
   <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+    <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
+    <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
     <t>Population ages 65 and above, female</t>
@@ -925,52 +931,28 @@
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
   </si>
   <si>
     <t>Reion_sub_code</t>
-  </si>
-  <si>
-    <t>Region_code</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6817459018296663</v>
+        <v>0.6814993535061951</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1352,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5629776563027451</v>
+        <v>0.5558930742181629</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1360,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.506248044875127</v>
+        <v>0.5072095833366652</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1376,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.460536064604844</v>
+        <v>0.4589264962885453</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1384,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4575949700606299</v>
+        <v>0.4576230852203231</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1392,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4459103030369458</v>
+        <v>0.4389682572573586</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1400,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4402503085394094</v>
+        <v>0.4364864528342092</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1408,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4332378450788132</v>
+        <v>0.4346787470131366</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1416,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4222895142526526</v>
+        <v>0.4213279757911144</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1424,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4222895142526526</v>
+        <v>0.4213279757911144</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1432,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3781709520599326</v>
+        <v>0.3760761718401522</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1440,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3465352911079114</v>
+        <v>0.3514774317300509</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1448,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3258300529370435</v>
+        <v>0.3270909164136242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1456,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3210275815360957</v>
+        <v>0.322513481772273</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1464,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3196518371273909</v>
+        <v>0.319460130614297</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1472,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2972143523184112</v>
+        <v>0.2979539972888254</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1480,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2758060863805789</v>
+        <v>0.2755389923634848</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1488,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2746974477435633</v>
+        <v>0.2742355945335584</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1496,7 +1478,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2637775982979123</v>
+        <v>0.2651512246715395</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1504,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2393949843083818</v>
+        <v>0.2426293932833872</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1512,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2365105621600776</v>
+        <v>0.2382911889407047</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1520,7 +1502,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2275937114642206</v>
+        <v>0.2247822737391436</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1528,7 +1510,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2271375267377795</v>
+        <v>0.2236407200112294</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1536,7 +1518,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2199459603637219</v>
+        <v>0.2199933879256377</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1552,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2092864663594138</v>
+        <v>0.2036780682290877</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1560,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2035436863560272</v>
+        <v>0.202427614927456</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1568,7 +1550,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1824760713691358</v>
+        <v>0.1843991482922125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1576,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1802741655638687</v>
+        <v>0.1815619402891437</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1584,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1765609099011258</v>
+        <v>0.1794390680677465</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1592,7 +1574,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1629664648905083</v>
+        <v>0.1670651201455162</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1600,7 +1582,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1617692543161038</v>
+        <v>0.16417310046995</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1608,7 +1590,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1588590722152192</v>
+        <v>0.1625484046898393</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1616,7 +1598,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.158160051432314</v>
+        <v>0.1577419912316453</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1624,7 +1606,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1489587333019164</v>
+        <v>0.1452117858049684</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1632,7 +1614,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1420489199242749</v>
+        <v>0.1396164565543123</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1640,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.139901314977303</v>
+        <v>0.136375979283601</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1648,7 +1630,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.137993054999646</v>
+        <v>0.1357122471643168</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1656,7 +1638,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1332940302478267</v>
+        <v>0.1288547675720415</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1664,7 +1646,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1266605936045608</v>
+        <v>0.1281658251196216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1672,7 +1654,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1258259003575932</v>
+        <v>0.1274376285596097</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1680,7 +1662,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1241405700496201</v>
+        <v>0.124858644801997</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1688,7 +1670,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1240516393074915</v>
+        <v>0.1233389087254624</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1696,7 +1678,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1200070934360582</v>
+        <v>0.1228516405209081</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1704,7 +1686,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1132136741636283</v>
+        <v>0.1164700055239707</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1712,7 +1694,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1121043352608093</v>
+        <v>0.1120976027350569</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1720,7 +1702,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1113043742414921</v>
+        <v>0.109571733901197</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1728,7 +1710,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.109571733901197</v>
+        <v>0.1089005280876458</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1736,7 +1718,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1076850471745581</v>
+        <v>0.1084246921449723</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1744,7 +1726,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1057610296754765</v>
+        <v>0.1033408079707527</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1752,7 +1734,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1050325969107335</v>
+        <v>0.1018274687056053</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1784,7 +1766,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1005435678821576</v>
+        <v>0.1006986547307929</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1792,7 +1774,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.09550498896513204</v>
+        <v>0.09536754310552542</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1800,7 +1782,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.09536754310552542</v>
+        <v>0.09467542637086401</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1808,7 +1790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.09457482879445833</v>
+        <v>0.0943702461430671</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1816,7 +1798,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.09311900018503616</v>
+        <v>0.09212623702841372</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1824,7 +1806,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.09266042506260197</v>
+        <v>0.09074382792314606</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1832,7 +1814,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.09157912736337037</v>
+        <v>0.09044277892479036</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1840,7 +1822,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.09135625238010836</v>
+        <v>0.08844492391117154</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1848,7 +1830,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.08443608185567353</v>
+        <v>0.0869046213771596</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1856,7 +1838,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0834362864151883</v>
+        <v>0.08550300883558792</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1864,7 +1846,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.08156235188553085</v>
+        <v>0.07944002735616995</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1872,7 +1854,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.08150008382951834</v>
+        <v>0.0792545731151808</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1880,7 +1862,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.07985808755683887</v>
+        <v>0.0790155446895584</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1888,7 +1870,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.07605671788963697</v>
+        <v>0.07829495562438993</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1896,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.07604944491005239</v>
+        <v>0.07547547729122028</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1904,7 +1886,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.07453729049268665</v>
+        <v>0.07303128097623635</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1912,7 +1894,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.07301456624550862</v>
+        <v>0.07285158968450856</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1920,7 +1902,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.07150757626399806</v>
+        <v>0.0683369142426753</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1928,7 +1910,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0708819222356889</v>
+        <v>0.06788636111730351</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1936,7 +1918,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.06931670368400278</v>
+        <v>0.06775701147683089</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1944,7 +1926,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.06928587604747105</v>
+        <v>0.06767679403056071</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1952,7 +1934,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.06765657943540448</v>
+        <v>0.06637937113579295</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1960,7 +1942,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0673318808156651</v>
+        <v>0.06405455000093396</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1968,7 +1950,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.06725967820606193</v>
+        <v>0.0635555198024087</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1976,7 +1958,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.06339521931125969</v>
+        <v>0.06293147133962362</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1984,7 +1966,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.06182789430002367</v>
+        <v>0.0625675392704379</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1992,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.06120195109216442</v>
+        <v>0.06144825968760137</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2000,7 +1982,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.06070861471718714</v>
+        <v>0.06019009110613127</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2008,7 +1990,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.06051493167386623</v>
+        <v>0.05917008496993348</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2016,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.06029181350648782</v>
+        <v>0.05917008496993348</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2024,7 +2006,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.06001498960283747</v>
+        <v>0.05799682288703645</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2032,7 +2014,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.05779287257216326</v>
+        <v>0.05730980346873804</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2040,7 +2022,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.05779287257216326</v>
+        <v>0.05680986139770905</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2048,7 +2030,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.05750953289018379</v>
+        <v>0.05458774436703484</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2056,7 +2038,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.05676623881608722</v>
+        <v>0.05458774436703484</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2064,7 +2046,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.05676623881608722</v>
+        <v>0.0543044046850556</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2072,7 +2054,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.05642071984579156</v>
+        <v>0.05425495351172094</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2080,7 +2062,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.05642071984579156</v>
+        <v>0.05417476507972996</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2088,7 +2070,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.05628252512477716</v>
+        <v>0.05374554842610424</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2096,7 +2078,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.05537102494029233</v>
+        <v>0.05321559164066314</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2104,7 +2086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0545662013931516</v>
+        <v>0.05321559164066314</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2112,7 +2094,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0542001594812056</v>
+        <v>0.0530840880526342</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2120,7 +2102,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0542001594812056</v>
+        <v>0.0530840880526342</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2128,7 +2110,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0542001594812056</v>
+        <v>0.0530840880526342</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2136,7 +2118,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.05392858082633412</v>
+        <v>0.05067355076580293</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2144,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.05383694803001426</v>
+        <v>0.05033208652736532</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2152,7 +2134,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.05353721473249373</v>
+        <v>0.05004903749223422</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2160,7 +2142,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.05316204504543198</v>
+        <v>0.04976519722796402</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2168,7 +2150,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.05181711286975021</v>
+        <v>0.04895722703417693</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2176,7 +2158,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.05128171828208172</v>
+        <v>0.04861198466462224</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2184,7 +2166,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0491915394131528</v>
+        <v>0.04807659007695331</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2192,7 +2174,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0484431066312645</v>
+        <v>0.04738500758119413</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2200,7 +2182,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.04791464766768594</v>
+        <v>0.04601303560065229</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2208,7 +2190,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.04739280042251304</v>
+        <v>0.04457958183261979</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2216,7 +2198,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.04689651718165599</v>
+        <v>0.04455633641361922</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2224,7 +2206,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.04669570219405728</v>
+        <v>0.0440755107484514</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2232,7 +2214,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.04601303560065229</v>
+        <v>0.0436913889765278</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2240,7 +2222,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.04580951989401849</v>
+        <v>0.04349057398892886</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2248,7 +2230,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.04487004063410249</v>
+        <v>0.04269219599678742</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2256,7 +2238,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.04405637940252749</v>
+        <v>0.0422049628693284</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2264,7 +2246,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.04341212860120613</v>
+        <v>0.0409605753000668</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2272,7 +2254,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0426703553669312</v>
+        <v>0.04024798786018557</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2280,7 +2262,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0422049628693284</v>
+        <v>0.04020700039607816</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2288,7 +2270,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.04089910682063014</v>
+        <v>0.03946522716180323</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2296,7 +2278,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.04016130656260719</v>
+        <v>0.03903837078109551</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2304,7 +2286,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.03972823734043507</v>
+        <v>0.03769397861550194</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2312,7 +2294,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0395664677283778</v>
+        <v>0.03686169618891455</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2320,7 +2302,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.03945643098176421</v>
+        <v>0.03648713520550939</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2328,7 +2310,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.03910954749950046</v>
+        <v>0.03636133952324982</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2336,7 +2318,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.03729036107540762</v>
+        <v>0.03590441929437227</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2344,7 +2326,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.03707170325457754</v>
+        <v>0.03517894505054331</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2352,7 +2334,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.03698723369898427</v>
+        <v>0.03496130186866031</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2360,7 +2342,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.03659803641726045</v>
+        <v>0.03420694659958778</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2368,7 +2350,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.03650052193826392</v>
+        <v>0.03378210549385607</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2376,7 +2358,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.03648353062999887</v>
+        <v>0.03374169992457343</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2384,7 +2366,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0363461756180723</v>
+        <v>0.03327840242487068</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2392,7 +2374,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.03599132830353535</v>
+        <v>0.03324266782751639</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2400,7 +2382,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.03586805414179994</v>
+        <v>0.03282625803565486</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2408,7 +2390,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.03506140178408068</v>
+        <v>0.03278620009840716</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2416,7 +2398,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.03496130186866031</v>
+        <v>0.03266292593667175</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2424,7 +2406,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.03407455358933542</v>
+        <v>0.03196665056969916</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2432,7 +2414,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.03396008472486733</v>
+        <v>0.03086942538420723</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2440,7 +2422,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.03395003139129193</v>
+        <v>0.03075495651973914</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2448,7 +2430,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.03384696255292119</v>
+        <v>0.03074490318616374</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2456,7 +2438,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.03351536835855629</v>
+        <v>0.030641834347793</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2464,7 +2446,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.03351536835855629</v>
+        <v>0.03031024015342809</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2472,7 +2454,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.03343417149899897</v>
+        <v>0.03031024015342809</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2480,7 +2462,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.03340733032916954</v>
+        <v>0.03020220212404134</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2488,7 +2470,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.03340733032916954</v>
+        <v>0.03020220212404134</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2496,7 +2478,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.03340733032916954</v>
+        <v>0.03020220212404134</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2504,7 +2486,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2512,7 +2494,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2520,7 +2502,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2528,7 +2510,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2536,7 +2518,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2544,7 +2526,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2552,7 +2534,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2560,7 +2542,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2568,7 +2550,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2576,7 +2558,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2584,7 +2566,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2592,7 +2574,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2600,7 +2582,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2608,7 +2590,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2616,7 +2598,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2624,7 +2606,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2632,7 +2614,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2640,7 +2622,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2648,7 +2630,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2656,7 +2638,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2664,7 +2646,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2672,7 +2654,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2680,7 +2662,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2688,7 +2670,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2696,7 +2678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2704,7 +2686,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2712,7 +2694,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2720,7 +2702,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2728,7 +2710,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2736,7 +2718,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2744,7 +2726,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2752,7 +2734,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2760,7 +2742,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2768,7 +2750,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2776,7 +2758,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2784,7 +2766,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2792,7 +2774,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2800,7 +2782,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2808,7 +2790,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2816,7 +2798,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2824,7 +2806,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2832,7 +2814,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2840,7 +2822,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2848,7 +2830,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2856,7 +2838,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2864,7 +2846,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2872,7 +2854,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2880,7 +2862,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2888,7 +2870,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2896,7 +2878,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2904,7 +2886,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2912,7 +2894,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2920,7 +2902,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2928,7 +2910,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2936,7 +2918,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2944,7 +2926,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2952,7 +2934,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2960,7 +2942,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2968,7 +2950,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2976,7 +2958,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2984,7 +2966,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2992,7 +2974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3000,7 +2982,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3008,7 +2990,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3016,7 +2998,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3024,7 +3006,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0333004927223326</v>
+        <v>0.0300953645172044</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3032,7 +3014,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.03303543950396914</v>
+        <v>0.02997600685662349</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3040,7 +3022,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.03292818903123784</v>
+        <v>0.02972007413515199</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3048,7 +3030,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0329252023402804</v>
+        <v>0.02967061439140251</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3056,7 +3038,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.03209928066086953</v>
+        <v>0.0291385380360083</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3064,7 +3046,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.031646307200631</v>
+        <v>0.02904125057068674</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3072,7 +3054,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.03120095907471443</v>
+        <v>0.02899472570034956</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3080,7 +3062,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.03111329522712536</v>
+        <v>0.02889415245574112</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3088,7 +3070,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.03109311436069984</v>
+        <v>0.02885040087800261</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3096,7 +3078,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0309531983610738</v>
+        <v>0.02878800957026306</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3104,7 +3086,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.03087952260086313</v>
+        <v>0.02774807015594538</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3112,7 +3094,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.03055112732343224</v>
+        <v>0.02767439439573516</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3120,7 +3102,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.02998528491030594</v>
+        <v>0.02740375265512496</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3128,7 +3110,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.02995780055611652</v>
+        <v>0.02734599911830404</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3136,7 +3118,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.02995160366022143</v>
+        <v>0.02721241269345831</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3144,7 +3126,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.02951479844464311</v>
+        <v>0.02704279407150612</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3152,7 +3134,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.02913548961653523</v>
+        <v>0.02678015670517797</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3160,7 +3142,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.02910428605333482</v>
+        <v>0.02675267235098833</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3168,7 +3150,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.02895491549501195</v>
+        <v>0.02674647545509323</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3176,7 +3158,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.02878800957026306</v>
+        <v>0.02630967023951514</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3184,7 +3166,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.02851982408369658</v>
+        <v>0.02616831159935851</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3192,7 +3174,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.02744125516006046</v>
+        <v>0.0258991578482064</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3200,7 +3182,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.02744125516006046</v>
+        <v>0.02574978728988375</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3208,7 +3190,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.02721194955513662</v>
+        <v>0.02423612695493205</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3216,7 +3198,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.02704279407150612</v>
+        <v>0.02423612695493205</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3224,7 +3206,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.02673214805891044</v>
+        <v>0.02400682135000864</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3232,7 +3214,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.02571000644846055</v>
+        <v>0.02298558442873988</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3240,7 +3222,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.02422697824202635</v>
+        <v>0.02298558442873988</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3248,7 +3230,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.02381674540539325</v>
+        <v>0.02282573003694122</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3256,7 +3238,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.02368538304131507</v>
+        <v>0.02276840659549428</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3264,7 +3246,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.02353540051309744</v>
+        <v>0.02146376302817532</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3272,7 +3254,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.02332073887859609</v>
+        <v>0.02102185003689794</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3280,7 +3262,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.02274277871709396</v>
+        <v>0.02074704515259373</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3288,7 +3270,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.02263082950031103</v>
+        <v>0.02037728465403066</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3296,7 +3278,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.02224593945832565</v>
+        <v>0.02033027230796947</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3304,7 +3286,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.02224593945832565</v>
+        <v>0.01953765051196599</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3312,7 +3294,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.02191047562438486</v>
+        <v>0.01950662947053883</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3320,7 +3302,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.02177700884869238</v>
+        <v>0.01942570129518262</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3328,7 +3310,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.02146376302817532</v>
+        <v>0.01857188064356396</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3336,7 +3318,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.02038063602178308</v>
+        <v>0.01848925320494343</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3344,7 +3326,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0202405210222929</v>
+        <v>0.01784736184437241</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3352,7 +3334,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.01983718508501475</v>
+        <v>0.01717550781665511</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3360,7 +3342,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.01945079166648167</v>
+        <v>0.01710076614468758</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3368,7 +3350,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.01897751922435553</v>
+        <v>0.01703539281716493</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3376,7 +3358,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.01892393758540711</v>
+        <v>0.01698994319746916</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3384,7 +3366,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.0189169036925827</v>
+        <v>0.01698994319746916</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3392,7 +3374,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.01880890030591065</v>
+        <v>0.016487130205187</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3400,7 +3382,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.01817353377618103</v>
+        <v>0.01602508658621105</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3408,7 +3390,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.01797046817977233</v>
+        <v>0.01577239101922734</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3416,7 +3398,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.01776912173604406</v>
+        <v>0.0157188093802787</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3424,7 +3406,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.01760320163375861</v>
+        <v>0.0155024939748829</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3432,7 +3414,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.01740693005339922</v>
+        <v>0.01539638715317437</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3440,7 +3422,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.01718667154544096</v>
+        <v>0.01499978364677412</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3448,7 +3430,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.01718223108818062</v>
+        <v>0.01499158431853553</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3456,7 +3438,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.01698994319746916</v>
+        <v>0.01456399353091564</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3464,7 +3446,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.01698994319746916</v>
+        <v>0.0140205130644353</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3472,7 +3454,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.01691249815647189</v>
+        <v>0.01397710288305243</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3480,7 +3462,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.0166589237336785</v>
+        <v>0.01377453409180829</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3488,7 +3470,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.0166280099490892</v>
+        <v>0.01370736995134347</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3496,7 +3478,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.01653242781741571</v>
+        <v>0.01341327291530625</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3504,7 +3486,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.01644145535557628</v>
+        <v>0.01335329453071132</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3512,7 +3494,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.01602762468440044</v>
+        <v>0.01332729961228751</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3520,7 +3502,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.0159057390882904</v>
+        <v>0.01330792933360847</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3528,7 +3510,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01572713977106122</v>
+        <v>0.01323632715044787</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3536,7 +3518,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.01534884933164293</v>
+        <v>0.01270061088316199</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3544,7 +3526,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.01523113933799691</v>
+        <v>0.01258339615824444</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3552,7 +3534,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.01451417906222252</v>
+        <v>0.01214372112651496</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3560,7 +3542,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.01343388166588944</v>
+        <v>0.0120057386487562</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3568,7 +3550,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.01341244118038643</v>
+        <v>0.01179795569442499</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3576,7 +3558,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.01328364128127357</v>
+        <v>0.01178968364642596</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3584,7 +3566,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.01264688669080916</v>
+        <v>0.01178888378229392</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3592,7 +3574,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.01221068421688054</v>
+        <v>0.01176947951701934</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3600,7 +3582,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.01155531506941188</v>
+        <v>0.0114875897214699</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3608,7 +3590,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.01128995262226806</v>
+        <v>0.01061765867173015</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3616,7 +3598,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.01117151959260387</v>
+        <v>0.009305196021384798</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3624,7 +3606,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.01108308716862316</v>
+        <v>0.008631660328389579</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3632,7 +3614,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.01042126744995597</v>
+        <v>0.008508287469495501</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3640,7 +3622,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.009753727763652131</v>
+        <v>0.008475805365045552</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3648,7 +3630,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.00953711892502751</v>
+        <v>0.007939849699797108</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3656,7 +3638,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.009469821160575709</v>
+        <v>0.007883891300646706</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3664,7 +3646,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.009244032298103777</v>
+        <v>0.007883891300646706</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3672,7 +3654,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.008475805365045552</v>
+        <v>0.00743875451072884</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3680,7 +3662,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.008337311819755833</v>
+        <v>0.007311894065439084</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3688,7 +3670,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.007883891300646706</v>
+        <v>0.00671314680896451</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3696,7 +3678,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.007883891300646706</v>
+        <v>0.006550172815396049</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3704,7 +3686,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.007673814808673907</v>
+        <v>0.006548599558523938</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3712,7 +3694,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.007574669152392133</v>
+        <v>0.006415263042558683</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3720,7 +3702,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.007136416888712249</v>
+        <v>0.006331990719899538</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3728,7 +3710,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.006845610330030283</v>
+        <v>0.006264692955447293</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3736,7 +3718,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.006706244962429997</v>
+        <v>0.005518469416206262</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3744,7 +3726,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.006023002576375447</v>
+        <v>0.00551035327021232</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3752,7 +3734,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.005156567633975762</v>
+        <v>0.005208646617817614</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3760,7 +3742,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.004558372442237113</v>
+        <v>0.004374964102833001</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3768,7 +3750,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.004456229945621004</v>
+        <v>0.004195029172437081</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3776,7 +3758,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.004243113930257669</v>
+        <v>0.003837218596083547</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3784,7 +3766,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.00408866425228771</v>
+        <v>0.003521960084104103</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3792,7 +3774,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.004060282579131602</v>
+        <v>0.002317240681390054</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3800,7 +3782,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.003278779142928734</v>
+        <v>0.001493036180395535</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3808,7 +3790,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.00294295562785174</v>
+        <v>0.001147434317686269</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3816,7 +3798,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.002228122541894306</v>
+        <v>0.0008835360471592946</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3824,7 +3806,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.001795399772548834</v>
+        <v>1.221245327087672e-15</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3832,7 +3814,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.001640263328928082</v>
+        <v>1.221245327087672e-15</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3840,54 +3822,6 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.0009940383987885326</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>0.0008694433575764382</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>0.0006240038181939411</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>0.000297426863065553</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>1.221245327087672e-15</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>1.221245327087672e-15</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B320">
         <v>1.221245327087672e-15</v>
       </c>
     </row>
